--- a/self-guided-labs/general-use-cases/orchestrate/AskHR-wxo/users_data.xlsx
+++ b/self-guided-labs/general-use-cases/orchestrate/AskHR-wxo/users_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,136 +1753,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Sara Abdullah</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>17</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>HR Analyst</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>8824 Hittin, Riyadh, Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Fahad Ahmad</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>10</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Chief HR Officer</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>9241 Olaya Dist, Riyadh, Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Raghad Alotaibi</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1344 King Fahad Dist, Riyadh, Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Raghad Alotaibi</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>22</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1344 King Fahad Dist, Riyadh, Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>George Regkas</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>25</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Senior AI Engineer</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>1223 Dubai Marina, Dubai, UAE</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
